--- a/TestData/firstFlow/addPolicyToWave.xlsx
+++ b/TestData/firstFlow/addPolicyToWave.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\OneForAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6C737E-7D65-4ECB-AC8E-149B0C4A2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D99F54-2FC4-4E3F-B607-95A08CA24D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t>Start Now</t>
   </si>
   <si>
-    <t>Trial 3</t>
+    <t>First Flow</t>
   </si>
   <si>
-    <t>Trial12</t>
+    <t>firstFlow</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/firstFlow/addPolicyToWave.xlsx
+++ b/TestData/firstFlow/addPolicyToWave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D99F54-2FC4-4E3F-B607-95A08CA24D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759B4A1D-85A2-4FA2-90A8-18544D04027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3156" yWindow="2280" windowWidth="16236" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/firstFlow/addPolicyToWave.xlsx
+++ b/TestData/firstFlow/addPolicyToWave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759B4A1D-85A2-4FA2-90A8-18544D04027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DFA7D-050E-458D-A4AB-77F75A55DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3156" yWindow="2280" windowWidth="16236" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
